--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_28_2.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_28_2.xlsx
@@ -518,1266 +518,1266 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_5</t>
+          <t>model_28_2_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9995928459691777</v>
+        <v>0.9999549481215966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9993642510051775</v>
+        <v>0.999063942309954</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9712385254067715</v>
+        <v>0.9999609795966211</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9996195664856735</v>
+        <v>0.9997635270089874</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9971843487612122</v>
+        <v>0.9998535284158813</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0003800604157761252</v>
+        <v>4.205395094067856e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.000593443780511183</v>
+        <v>0.000873768765474148</v>
       </c>
       <c r="I2" t="n">
-        <v>0.00205381408181031</v>
+        <v>3.055746665345906e-05</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0002786474492801284</v>
+        <v>0.0002322797236735885</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001166230765545219</v>
+        <v>0.0001314185951635238</v>
       </c>
       <c r="L2" t="n">
-        <v>0.001102141120194447</v>
+        <v>0.000423683594587255</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01949513825998998</v>
+        <v>0.006484901768005322</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000465318892368</v>
+        <v>1.000051487861032</v>
       </c>
       <c r="O2" t="n">
-        <v>0.02032508665621735</v>
+        <v>0.00676097746186659</v>
       </c>
       <c r="P2" t="n">
-        <v>105.7503606579934</v>
+        <v>110.1531144355958</v>
       </c>
       <c r="Q2" t="n">
-        <v>160.5997727770624</v>
+        <v>165.0025265546649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_6</t>
+          <t>model_28_2_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9995719798385809</v>
+        <v>0.9999549431951168</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993640975471647</v>
+        <v>0.9990639283859557</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9696369998108979</v>
+        <v>0.9999609768448401</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9995982702584597</v>
+        <v>0.9997635037450215</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9970274653057345</v>
+        <v>0.9998535123979638</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0003995380327710605</v>
+        <v>4.205854959330355e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005935870268300327</v>
+        <v>0.0008737817629153589</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002168176640326664</v>
+        <v>3.055962161469406e-05</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002942458105415224</v>
+        <v>0.0002323025751102925</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001231211225434093</v>
+        <v>0.0001314329669081595</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001107888849378358</v>
+        <v>0.0004236865849936197</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01998844748276015</v>
+        <v>0.006485256324410282</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000489165898765</v>
+        <v>1.000051493491295</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02083939707389172</v>
+        <v>0.006761347112471741</v>
       </c>
       <c r="P3" t="n">
-        <v>105.6504031927209</v>
+        <v>110.1528957450278</v>
       </c>
       <c r="Q3" t="n">
-        <v>160.4998153117899</v>
+        <v>165.0023078640968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_4</t>
+          <t>model_28_2_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9996150395439397</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C4" t="n">
-        <v>0.999363042976234</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D4" t="n">
-        <v>0.972963742268281</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9996420050349644</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9973529045959837</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0003593436879211668</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0005945714225035484</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001930618914161325</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002622123974511314</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001096415655806228</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L4" t="n">
-        <v>0.001095208011102763</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01895636272920432</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000439954806926</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01976337433566705</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P4" t="n">
-        <v>105.862462558943</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q4" t="n">
-        <v>160.711874678012</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_7</t>
+          <t>model_28_2_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9995524037023623</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9993629065007598</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9681512206899451</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E5" t="n">
-        <v>0.999578128332929</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9968815788306656</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004178114966380373</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005946988163682192</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002274273915387487</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0003089987068069072</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001291636782817945</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L5" t="n">
-        <v>0.001113144498025442</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02044043777999966</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000511538625872</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02131062953383361</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P5" t="n">
-        <v>105.5609603842712</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q5" t="n">
-        <v>160.4103725033402</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_8</t>
+          <t>model_28_2_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9995339010130428</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C6" t="n">
-        <v>0.999360965861535</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9667614323824578</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995589130565166</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9967447885010268</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004350829449435834</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0005965103179002801</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002373516629365884</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0003230728815520353</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K6" t="n">
-        <v>0.00134829475545896</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L6" t="n">
-        <v>0.001117947722034167</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02085864197265928</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000532684556523</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O6" t="n">
-        <v>0.02174663754477678</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P6" t="n">
-        <v>105.4799477340422</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q6" t="n">
-        <v>160.3293598531112</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_3</t>
+          <t>model_28_2_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9996385533451495</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9993600740086925</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9748172988225147</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9996656577379419</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9975335970230697</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0003373945866284528</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0005973428233809471</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001798259200121724</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002448880421957064</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001021573621158715</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L7" t="n">
-        <v>0.001086458876104251</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01836830385823505</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000413081891258</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01915028058111094</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P7" t="n">
-        <v>105.9885148647088</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q7" t="n">
-        <v>160.8379269837778</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_9</t>
+          <t>model_28_2_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9995167892239086</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9993584906439746</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9654876077300523</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9995408819488043</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9966190402808504</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000451056048979595</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0005988208248434572</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002464478551376778</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J8" t="n">
-        <v>0.000336279715289066</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001400379133332922</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001122104451612726</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02123808016228385</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000552240886962</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O8" t="n">
-        <v>0.022142229203679</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P8" t="n">
-        <v>105.4078378981335</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q8" t="n">
-        <v>160.2572500172025</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_10</t>
+          <t>model_28_2_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9995009524918236</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C9" t="n">
-        <v>0.999355679587055</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9643186241882592</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9995239267689794</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9965032823213382</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004658389432288611</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006014448230867822</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002547953925761946</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0003486984886946456</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001448325587737518</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L9" t="n">
-        <v>0.001125843671635993</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02158330241712007</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000570340009344</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O9" t="n">
-        <v>0.02250214828461218</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P9" t="n">
-        <v>105.3433411979322</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q9" t="n">
-        <v>160.1927533170012</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_2</t>
+          <t>model_28_2_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9996635161662752</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9993548077516533</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9768159650070142</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9996905868406777</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9977279266713925</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0003140928888487406</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006022586431650462</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I10" t="n">
-        <v>0.00165553742341805</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002266287915550824</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K10" t="n">
-        <v>0.000941083107486566</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L10" t="n">
-        <v>0.001074640899379136</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M10" t="n">
-        <v>0.01772266596335722</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000384552952828</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01847715654439347</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P10" t="n">
-        <v>106.1316435828887</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q10" t="n">
-        <v>160.9810557019578</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_11</t>
+          <t>model_28_2_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9994860640099051</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9993526630572677</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9632272757893546</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9995078707967685</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9963950008737494</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0004797366875708593</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000604260621232852</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002625885490173424</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0003604586400320151</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001493175302707984</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L11" t="n">
-        <v>0.001129429855019126</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0219028922193134</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000587355417251</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O11" t="n">
-        <v>0.02283534368632698</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P11" t="n">
-        <v>105.2845463442826</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q11" t="n">
-        <v>160.1339584633516</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_12</t>
+          <t>model_28_2_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9994722662784855</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9993495327516606</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9622225445399955</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9994928020281781</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9962950759407542</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0004926162642006235</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0006071826241124986</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002697631852887891</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0003714957168756004</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001534563784881746</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001132769038806603</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M12" t="n">
-        <v>0.02219496033338703</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000603124253159</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O12" t="n">
-        <v>0.02313984574468106</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P12" t="n">
-        <v>105.2315601115385</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q12" t="n">
-        <v>160.0809722306075</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_1</t>
+          <t>model_28_2_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9996898088620427</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9993466026579297</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9789613660359991</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9997165163083938</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9979357895722807</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0002895498114658029</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0006099177379940059</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I13" t="n">
-        <v>0.001502337529922426</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002076368264200572</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0008549871781712417</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L13" t="n">
-        <v>0.001058562513894732</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M13" t="n">
-        <v>0.01701616324163008</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000354504157665</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01774057653914016</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P13" t="n">
-        <v>106.294366430842</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q13" t="n">
-        <v>161.143778549911</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_13</t>
+          <t>model_28_2_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9994596182480259</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.999346408759385</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D14" t="n">
-        <v>0.961306853526638</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9994788054517691</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9962037665955273</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0005044226454503717</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0006100987337744155</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002763019984908894</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003817474695948926</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001572383727251893</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L14" t="n">
-        <v>0.001135701939266422</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0224593554103935</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000617579145113</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O14" t="n">
-        <v>0.02341549666748896</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P14" t="n">
-        <v>105.1841921181275</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q14" t="n">
-        <v>160.0336042371965</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_14</t>
+          <t>model_28_2_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.999448243517374</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9993433843918202</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9604878587537646</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9994660094707937</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9961218524984115</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G15" t="n">
-        <v>0.000515040457220923</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0006129218481417302</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002821503182354288</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0003911198495918435</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001606312197821073</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L15" t="n">
-        <v>0.001138144232250655</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02269450279739398</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000630578837287</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O15" t="n">
-        <v>0.02366065476557625</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P15" t="n">
-        <v>105.142530205351</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.99194232442</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_15</t>
+          <t>model_28_2_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9994377799168781</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9993404677340205</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9597376975457539</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9994541459945205</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9960466997457343</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0005248077689849087</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0006156444201712344</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002875071077409395</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0003998092191626542</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001637440148286024</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L16" t="n">
-        <v>0.001140474204908883</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M16" t="n">
-        <v>0.02290868326606548</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000642537237854</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O16" t="n">
-        <v>0.02388395334021379</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P16" t="n">
-        <v>105.1049570334759</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q16" t="n">
-        <v>159.954369152545</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_16</t>
+          <t>model_28_2_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9994283697627235</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9993377216659513</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9590658483302972</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9994433544932262</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9959792437695206</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0005335917348301147</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0006182077541755015</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002923046829663871</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0004077134236986468</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001665380126681259</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L17" t="n">
-        <v>0.001142440805652235</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M17" t="n">
-        <v>0.02309960464661927</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000653291699745</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O17" t="n">
-        <v>0.02408300263919949</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P17" t="n">
-        <v>105.0717591058633</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.9211712249323</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_17</t>
+          <t>model_28_2_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999419884032022</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9993351639530429</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9584623419100654</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9994335179123344</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F18" t="n">
-        <v>0.995918523359831</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0005415127919595318</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0006205952669047798</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002966142324657262</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0004149181994923764</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001690530262074819</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L18" t="n">
-        <v>0.001144087411706084</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M18" t="n">
-        <v>0.02327042741248067</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000662989677689</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O18" t="n">
-        <v>0.02426109768385548</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P18" t="n">
-        <v>105.0422877372166</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.8916998562856</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_0</t>
+          <t>model_28_2_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9997176616899233</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C19" t="n">
-        <v>0.999334348441739</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9812864083190137</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9997431668072966</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9981597753231538</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0002635504192371383</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0006213565109101627</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I19" t="n">
-        <v>0.001336309721919013</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001881167440359962</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0007622132329775046</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0010360485402032</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M19" t="n">
-        <v>0.01623423602258937</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000322672354373</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O19" t="n">
-        <v>0.01692536105957239</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P19" t="n">
-        <v>106.4825317278668</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q19" t="n">
-        <v>161.3319438469358</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_18</t>
+          <t>model_28_2_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9994121789074025</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9993328163770794</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9579152280456223</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9994246050174505</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F20" t="n">
-        <v>0.995863482508625</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G20" t="n">
-        <v>0.000548705187575855</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.000622786626020097</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I20" t="n">
-        <v>0.003005210911196677</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0004214464240876835</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K20" t="n">
-        <v>0.00171332794850489</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L20" t="n">
-        <v>0.001145534862439353</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M20" t="n">
-        <v>0.02342445703908321</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000671795534397</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O20" t="n">
-        <v>0.02442168467054778</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P20" t="n">
-        <v>105.0158985192828</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q20" t="n">
-        <v>159.8653106383518</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_19</t>
+          <t>model_28_2_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9994052533304066</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9993306564623959</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9574251712985934</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9994165099024408</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9958140796532896</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0005551699097038772</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0006248028115677972</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I21" t="n">
-        <v>0.003040205133925828</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0004273756681319844</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001733790401028906</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L21" t="n">
-        <v>0.001146759283006914</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M21" t="n">
-        <v>0.02356204383545445</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000679710479535</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O21" t="n">
-        <v>0.02456512882168448</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P21" t="n">
-        <v>104.9924726949193</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.8418848139883</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_20</t>
+          <t>model_28_2_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9993991300365805</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9993286987473151</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9569933826081271</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9994092715869978</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9957704458984957</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0005608857357089339</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0006266302526619684</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I22" t="n">
-        <v>0.003071038521482911</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0004326773517622132</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001751863316649941</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L22" t="n">
-        <v>0.00114768242514058</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M22" t="n">
-        <v>0.02368302632074148</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000686708529622</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O22" t="n">
-        <v>0.02469126178183845</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P22" t="n">
-        <v>104.9719867057006</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q22" t="n">
-        <v>159.8213988247697</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_21</t>
+          <t>model_28_2_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9993935809598901</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9993269177929712</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9566019703167226</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E23" t="n">
-        <v>0.999402750091263</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9957309524218818</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0005660655552232523</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.00062829269536708</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I23" t="n">
-        <v>0.003098988690493701</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0004374540028287751</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001768221346661238</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L23" t="n">
-        <v>0.001148488989735716</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M23" t="n">
-        <v>0.02379213221262971</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000693050331554</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O23" t="n">
-        <v>0.02480501253742469</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P23" t="n">
-        <v>104.9536013290375</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q23" t="n">
-        <v>159.8030134481065</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_28_2_22</t>
+          <t>model_28_2_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9993886565049643</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9993253219417738</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9562556942390243</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9993969062844688</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9956959359602395</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0005706623177377995</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0006297823524101375</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I24" t="n">
-        <v>0.003123715749680647</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0004417342825517122</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001782725016116179</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L24" t="n">
-        <v>0.001149110596232235</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M24" t="n">
-        <v>0.02388853946430797</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000698678280041</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O24" t="n">
-        <v>0.02490552404539742</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P24" t="n">
-        <v>104.9374258214926</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.7868379405616</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="25">
@@ -1787,52 +1787,52 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9993842744134178</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9993238908903088</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9559478407410348</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9993917086843351</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9956648029419721</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0005747528078448351</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0006311181761367825</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I25" t="n">
-        <v>0.003145699109652543</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0004455412500376925</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001795620179845118</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L25" t="n">
-        <v>0.001149577164799173</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M25" t="n">
-        <v>0.02397400274974613</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000703686384665</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O25" t="n">
-        <v>0.02499462567983007</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P25" t="n">
-        <v>104.9231410180009</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q25" t="n">
-        <v>159.7725531370699</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9993803846332795</v>
+        <v>0.9999549410293126</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9993226209302792</v>
+        <v>0.9990639202211722</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9556749953671214</v>
+        <v>0.9999609713408426</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9993870769406232</v>
+        <v>0.9997634914641947</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9956371879921319</v>
+        <v>0.9998535053561581</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0005783837468623528</v>
+        <v>4.206057127643839e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.000632303628079596</v>
+        <v>0.0008737893843822983</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003165182591602807</v>
+        <v>3.056393187822458e-05</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0004489337575914288</v>
+        <v>0.0002323146381667051</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001807058174597118</v>
+        <v>0.0001314392850224648</v>
       </c>
       <c r="L26" t="n">
-        <v>0.001149903794690949</v>
+        <v>0.0004236862227404525</v>
       </c>
       <c r="M26" t="n">
-        <v>0.0240496101187182</v>
+        <v>0.006485412190172526</v>
       </c>
       <c r="N26" t="n">
-        <v>1.00070813184768</v>
+        <v>1.0000514959665</v>
       </c>
       <c r="O26" t="n">
-        <v>0.02507345181102811</v>
+        <v>0.00676150961376217</v>
       </c>
       <c r="P26" t="n">
-        <v>104.9105459753667</v>
+        <v>110.1527996107309</v>
       </c>
       <c r="Q26" t="n">
-        <v>159.7599580944357</v>
+        <v>165.0022117297999</v>
       </c>
     </row>
   </sheetData>
